--- a/docs/StructureDefinition-CareConnect-Observation-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Observation-1.xlsx
@@ -5469,7 +5469,7 @@
         <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -8174,7 +8174,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -9818,7 +9818,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -14032,7 +14032,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
